--- a/圖表/甘特圖 0518.xlsx
+++ b/圖表/甘特圖 0518.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\.shortcut-targets-by-id\1-m8AGF6t9XJNPnG2btxTiElCpFGHl32Y\專題\☆ 專題正式文件 ☆\圖表\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{60A50D11-7C1F-44FE-BC87-9C0F7985C579}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B6AD7553-6C58-4CBF-B99B-3B80E9F9E5C9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{F6C1C8DF-2B19-4656-96AD-124909EDCE92}"/>
   </bookViews>
@@ -547,6 +547,224 @@
             <a:effectLst/>
           </c:spPr>
           <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:dLbl>
+              <c:idx val="0"/>
+              <c:delete val="1"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000010-C9B3-4198-9DC2-48EF2F9E5DAD}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="1"/>
+              <c:delete val="1"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{0000000F-C9B3-4198-9DC2-48EF2F9E5DAD}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="2"/>
+              <c:delete val="1"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{0000000D-C9B3-4198-9DC2-48EF2F9E5DAD}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="3"/>
+              <c:delete val="1"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{0000000E-C9B3-4198-9DC2-48EF2F9E5DAD}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="4"/>
+              <c:delete val="1"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000001-C9B3-4198-9DC2-48EF2F9E5DAD}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="5"/>
+              <c:delete val="1"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000002-C9B3-4198-9DC2-48EF2F9E5DAD}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="6"/>
+              <c:delete val="1"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000003-C9B3-4198-9DC2-48EF2F9E5DAD}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="7"/>
+              <c:delete val="1"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000004-C9B3-4198-9DC2-48EF2F9E5DAD}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="8"/>
+              <c:delete val="1"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000005-C9B3-4198-9DC2-48EF2F9E5DAD}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="9"/>
+              <c:delete val="1"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000006-C9B3-4198-9DC2-48EF2F9E5DAD}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="10"/>
+              <c:delete val="1"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000007-C9B3-4198-9DC2-48EF2F9E5DAD}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="11"/>
+              <c:delete val="1"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000008-C9B3-4198-9DC2-48EF2F9E5DAD}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="12"/>
+              <c:delete val="1"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000009-C9B3-4198-9DC2-48EF2F9E5DAD}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="13"/>
+              <c:delete val="1"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{0000000A-C9B3-4198-9DC2-48EF2F9E5DAD}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="14"/>
+              <c:delete val="1"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{0000000B-C9B3-4198-9DC2-48EF2F9E5DAD}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="15"/>
+              <c:delete val="1"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{0000000C-C9B3-4198-9DC2-48EF2F9E5DAD}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="zh-TW"/>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:separator>, </c:separator>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
           <c:cat>
             <c:strRef>
               <c:f>工作表1!$C$4:$C$19</c:f>
@@ -1817,7 +2035,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A7F4BDB1-4776-4630-8D31-BA0C296E5771}">
   <dimension ref="C2:J44"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A25" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <selection activeCell="M12" sqref="M12"/>
     </sheetView>
   </sheetViews>
@@ -1864,7 +2082,7 @@
         <v>44531</v>
       </c>
       <c r="E4" s="4">
-        <f>F4-D4+1</f>
+        <f t="shared" ref="E4:E19" si="0">F4-D4+1</f>
         <v>19</v>
       </c>
       <c r="F4" s="5">
@@ -1874,7 +2092,7 @@
         <v>1</v>
       </c>
       <c r="H4" s="4">
-        <f>I4-D4+1</f>
+        <f t="shared" ref="H4:H17" si="1">I4-D4+1</f>
         <v>18</v>
       </c>
       <c r="I4" s="5">
@@ -1890,7 +2108,7 @@
         <v>44599</v>
       </c>
       <c r="E5" s="4">
-        <f>F5-D5+1</f>
+        <f t="shared" si="0"/>
         <v>26</v>
       </c>
       <c r="F5" s="5">
@@ -1900,7 +2118,7 @@
         <v>1</v>
       </c>
       <c r="H5" s="4">
-        <f>I5-D5+1</f>
+        <f t="shared" si="1"/>
         <v>26</v>
       </c>
       <c r="I5" s="5">
@@ -1916,7 +2134,7 @@
         <v>44564</v>
       </c>
       <c r="E6" s="4">
-        <f>F6-D6+1</f>
+        <f t="shared" si="0"/>
         <v>57</v>
       </c>
       <c r="F6" s="5">
@@ -1926,7 +2144,7 @@
         <v>1</v>
       </c>
       <c r="H6" s="4">
-        <f>I6-D6+1</f>
+        <f t="shared" si="1"/>
         <v>62</v>
       </c>
       <c r="I6" s="5">
@@ -1942,7 +2160,7 @@
         <v>44602</v>
       </c>
       <c r="E7" s="4">
-        <f>F7-D7+1</f>
+        <f t="shared" si="0"/>
         <v>35</v>
       </c>
       <c r="F7" s="5">
@@ -1952,7 +2170,7 @@
         <v>1</v>
       </c>
       <c r="H7" s="4">
-        <f>I7-D7+1</f>
+        <f t="shared" si="1"/>
         <v>32</v>
       </c>
       <c r="I7" s="5">
@@ -1968,7 +2186,7 @@
         <v>44612</v>
       </c>
       <c r="E8" s="4">
-        <f>F8-D8+1</f>
+        <f t="shared" si="0"/>
         <v>29</v>
       </c>
       <c r="F8" s="5">
@@ -1978,7 +2196,7 @@
         <v>0.85</v>
       </c>
       <c r="H8" s="4">
-        <f>I8-D8+1</f>
+        <f t="shared" si="1"/>
         <v>31</v>
       </c>
       <c r="I8" s="5">
@@ -1994,7 +2212,7 @@
         <v>44576</v>
       </c>
       <c r="E9" s="4">
-        <f>F9-D9+1</f>
+        <f t="shared" si="0"/>
         <v>219</v>
       </c>
       <c r="F9" s="5">
@@ -2004,7 +2222,7 @@
         <v>0.5</v>
       </c>
       <c r="H9" s="4">
-        <f>I9-D9+1</f>
+        <f t="shared" si="1"/>
         <v>124</v>
       </c>
       <c r="I9" s="5">
@@ -2020,7 +2238,7 @@
         <v>44615</v>
       </c>
       <c r="E10" s="4">
-        <f>F10-D10+1</f>
+        <f t="shared" si="0"/>
         <v>273</v>
       </c>
       <c r="F10" s="5">
@@ -2030,7 +2248,7 @@
         <v>0.5</v>
       </c>
       <c r="H10" s="4">
-        <f>I10-D10+1</f>
+        <f t="shared" si="1"/>
         <v>85</v>
       </c>
       <c r="I10" s="5">
@@ -2046,7 +2264,7 @@
         <v>44620</v>
       </c>
       <c r="E11" s="4">
-        <f>F11-D11+1</f>
+        <f t="shared" si="0"/>
         <v>166</v>
       </c>
       <c r="F11" s="5">
@@ -2056,7 +2274,7 @@
         <v>0.6</v>
       </c>
       <c r="H11" s="4">
-        <f>I11-D11+1</f>
+        <f t="shared" si="1"/>
         <v>80</v>
       </c>
       <c r="I11" s="5">
@@ -2072,7 +2290,7 @@
         <v>44625</v>
       </c>
       <c r="E12" s="4">
-        <f>F12-D12+1</f>
+        <f t="shared" si="0"/>
         <v>281</v>
       </c>
       <c r="F12" s="5">
@@ -2082,7 +2300,7 @@
         <v>0.3</v>
       </c>
       <c r="H12" s="4">
-        <f>I12-D12+1</f>
+        <f t="shared" si="1"/>
         <v>75</v>
       </c>
       <c r="I12" s="5">
@@ -2098,7 +2316,7 @@
         <v>44658</v>
       </c>
       <c r="E13" s="4">
-        <f>F13-D13+1</f>
+        <f t="shared" si="0"/>
         <v>115</v>
       </c>
       <c r="F13" s="5">
@@ -2108,7 +2326,7 @@
         <v>0.65</v>
       </c>
       <c r="H13" s="4">
-        <f>I13-D13+1</f>
+        <f t="shared" si="1"/>
         <v>42</v>
       </c>
       <c r="I13" s="5">
@@ -2124,7 +2342,7 @@
         <v>44658</v>
       </c>
       <c r="E14" s="4">
-        <f>F14-D14+1</f>
+        <f t="shared" si="0"/>
         <v>115</v>
       </c>
       <c r="F14" s="5">
@@ -2134,7 +2352,7 @@
         <v>0.65</v>
       </c>
       <c r="H14" s="4">
-        <f>I14-D14+1</f>
+        <f t="shared" si="1"/>
         <v>42</v>
       </c>
       <c r="I14" s="5">
@@ -2150,7 +2368,7 @@
         <v>44678</v>
       </c>
       <c r="E15" s="4">
-        <f>F15-D15+1</f>
+        <f t="shared" si="0"/>
         <v>50</v>
       </c>
       <c r="F15" s="5">
@@ -2160,7 +2378,7 @@
         <v>0.7</v>
       </c>
       <c r="H15" s="4">
-        <f>I15-D15+1</f>
+        <f t="shared" si="1"/>
         <v>22</v>
       </c>
       <c r="I15" s="5">
@@ -2176,7 +2394,7 @@
         <v>44678</v>
       </c>
       <c r="E16" s="4">
-        <f>F16-D16+1</f>
+        <f t="shared" si="0"/>
         <v>178</v>
       </c>
       <c r="F16" s="5">
@@ -2186,7 +2404,7 @@
         <v>0.2</v>
       </c>
       <c r="H16" s="4">
-        <f>I16-D16+1</f>
+        <f t="shared" si="1"/>
         <v>22</v>
       </c>
       <c r="I16" s="5">
@@ -2202,7 +2420,7 @@
         <v>44683</v>
       </c>
       <c r="E17" s="4">
-        <f>F17-D17+1</f>
+        <f t="shared" si="0"/>
         <v>106</v>
       </c>
       <c r="F17" s="5">
@@ -2212,7 +2430,7 @@
         <v>0.05</v>
       </c>
       <c r="H17" s="4">
-        <f>I17-D17+1</f>
+        <f t="shared" si="1"/>
         <v>17</v>
       </c>
       <c r="I17" s="5">
@@ -2228,7 +2446,7 @@
         <v>44702</v>
       </c>
       <c r="E18" s="4">
-        <f>F18-D18+1</f>
+        <f t="shared" si="0"/>
         <v>176</v>
       </c>
       <c r="F18" s="5">
@@ -2254,7 +2472,7 @@
         <v>44866</v>
       </c>
       <c r="E19" s="4">
-        <f>F19-D19+1</f>
+        <f t="shared" si="0"/>
         <v>30</v>
       </c>
       <c r="F19" s="5">

--- a/圖表/甘特圖 0518.xlsx
+++ b/圖表/甘特圖 0518.xlsx
@@ -1,136 +1,121 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25028"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20385"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\.shortcut-targets-by-id\1-m8AGF6t9XJNPnG2btxTiElCpFGHl32Y\專題\☆ 專題正式文件 ☆\圖表\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Download\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B6AD7553-6C58-4CBF-B99B-3B80E9F9E5C9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4757FAD2-BACD-4F80-B446-EC4DE5416688}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{F6C1C8DF-2B19-4656-96AD-124909EDCE92}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="17256" windowHeight="5724" xr2:uid="{F6C1C8DF-2B19-4656-96AD-124909EDCE92}"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
   <si>
     <t>任務名稱</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>系統功能分析</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>Logo 設計</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>主題構思</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>系統需求分析</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>系統模型</t>
   </si>
   <si>
-    <t>UI前端設計</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>手機前端程式開發</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>實際數據測試</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>文案撰寫</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>程式數據校訂</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>網頁程式前端開發</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>開發工具學習</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>海報設計</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>開始時間</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>天數</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>實際天數</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>完成度</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>後端程式撰寫</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>資料庫建置</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>伺服器架設</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>預計結束時間</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>結束日</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>實際</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve">   </t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>UI 設計</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>簡報製作</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>App開發</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Web開發</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -140,15 +125,7 @@
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="m&quot;月&quot;d&quot;日&quot;"/>
   </numFmts>
-  <fonts count="5" x14ac:knownFonts="1">
-    <font>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="新細明體"/>
-      <family val="2"/>
-      <charset val="136"/>
-      <scheme val="minor"/>
-    </font>
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -226,11 +203,8 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -244,28 +218,27 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="4" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="4" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="1">
     <cellStyle name="一般" xfId="0" builtinId="0"/>
-    <cellStyle name="百分比" xfId="1" builtinId="5"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -296,7 +269,17 @@
   <c:chart>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
-      <c:layout/>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.11045460450338189"/>
+          <c:y val="6.4107857576205823E-2"/>
+          <c:w val="0.86617397913539285"/>
+          <c:h val="0.90594361444646676"/>
+        </c:manualLayout>
+      </c:layout>
       <c:barChart>
         <c:barDir val="bar"/>
         <c:grouping val="stacked"/>
@@ -329,10 +312,10 @@
             <c:noEndCap val="1"/>
             <c:plus>
               <c:numRef>
-                <c:f>工作表1!$H$4:$H$19</c:f>
+                <c:f>工作表1!$G$4:$G$20</c:f>
                 <c:numCache>
                   <c:formatCode>General</c:formatCode>
-                  <c:ptCount val="16"/>
+                  <c:ptCount val="17"/>
                   <c:pt idx="0">
                     <c:v>18</c:v>
                   </c:pt>
@@ -358,7 +341,7 @@
                     <c:v>80</c:v>
                   </c:pt>
                   <c:pt idx="8">
-                    <c:v>75</c:v>
+                    <c:v>38</c:v>
                   </c:pt>
                   <c:pt idx="9">
                     <c:v>42</c:v>
@@ -379,7 +362,7 @@
                     <c:v>0</c:v>
                   </c:pt>
                   <c:pt idx="15">
-                    <c:v>0</c:v>
+                    <c:v>10</c:v>
                   </c:pt>
                 </c:numCache>
               </c:numRef>
@@ -406,7 +389,7 @@
           </c:errBars>
           <c:cat>
             <c:strRef>
-              <c:f>工作表1!$C$4:$C$19</c:f>
+              <c:f>工作表1!$C$4:$C$20</c:f>
               <c:strCache>
                 <c:ptCount val="16"/>
                 <c:pt idx="0">
@@ -431,7 +414,7 @@
                   <c:v>文案撰寫</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>手機前端程式開發</c:v>
+                  <c:v>App開發</c:v>
                 </c:pt>
                 <c:pt idx="8">
                   <c:v>後端程式撰寫</c:v>
@@ -443,10 +426,10 @@
                   <c:v>實際數據測試</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>UI前端設計</c:v>
+                  <c:v>UI 設計</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>網頁程式前端開發</c:v>
+                  <c:v>Web開發</c:v>
                 </c:pt>
                 <c:pt idx="13">
                   <c:v>資料庫建置</c:v>
@@ -455,17 +438,17 @@
                   <c:v>伺服器架設</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>海報設計</c:v>
+                  <c:v>簡報製作</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>工作表1!$D$4:$D$20</c:f>
+              <c:f>工作表1!$D$4:$D$21</c:f>
               <c:numCache>
                 <c:formatCode>m"月"d"日"</c:formatCode>
-                <c:ptCount val="17"/>
+                <c:ptCount val="18"/>
                 <c:pt idx="0">
                   <c:v>44531</c:v>
                 </c:pt>
@@ -491,7 +474,7 @@
                   <c:v>44620</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>44625</c:v>
+                  <c:v>44662</c:v>
                 </c:pt>
                 <c:pt idx="9">
                   <c:v>44658</c:v>
@@ -512,7 +495,7 @@
                   <c:v>44702</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>44866</c:v>
+                  <c:v>44690</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -708,6 +691,13 @@
                 </c:ext>
               </c:extLst>
             </c:dLbl>
+            <c:dLbl>
+              <c:idx val="16"/>
+              <c:delete val="1"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+              </c:extLst>
+            </c:dLbl>
             <c:spPr>
               <a:noFill/>
               <a:ln>
@@ -767,7 +757,7 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>工作表1!$C$4:$C$19</c:f>
+              <c:f>工作表1!$C$4:$C$20</c:f>
               <c:strCache>
                 <c:ptCount val="16"/>
                 <c:pt idx="0">
@@ -792,7 +782,7 @@
                   <c:v>文案撰寫</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>手機前端程式開發</c:v>
+                  <c:v>App開發</c:v>
                 </c:pt>
                 <c:pt idx="8">
                   <c:v>後端程式撰寫</c:v>
@@ -804,10 +794,10 @@
                   <c:v>實際數據測試</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>UI前端設計</c:v>
+                  <c:v>UI 設計</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>網頁程式前端開發</c:v>
+                  <c:v>Web開發</c:v>
                 </c:pt>
                 <c:pt idx="13">
                   <c:v>資料庫建置</c:v>
@@ -816,17 +806,17 @@
                   <c:v>伺服器架設</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>海報設計</c:v>
+                  <c:v>簡報製作</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>工作表1!$E$4:$E$20</c:f>
+              <c:f>工作表1!$E$4:$E$21</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="17"/>
+                <c:ptCount val="18"/>
                 <c:pt idx="0">
                   <c:v>19</c:v>
                 </c:pt>
@@ -852,7 +842,7 @@
                   <c:v>166</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>281</c:v>
+                  <c:v>244</c:v>
                 </c:pt>
                 <c:pt idx="9">
                   <c:v>115</c:v>
@@ -873,7 +863,7 @@
                   <c:v>176</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>30</c:v>
+                  <c:v>18</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -889,7 +879,7 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>工作表1!$J$3</c:f>
+              <c:f>工作表1!$I$3</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
               </c:strCache>
@@ -907,10 +897,10 @@
           <c:invertIfNegative val="0"/>
           <c:val>
             <c:numRef>
-              <c:f>(工作表1!$J$4:$J$19,工作表1!$F$20)</c:f>
+              <c:f>(工作表1!$I$4:$I$20,工作表1!$F$21)</c:f>
               <c:numCache>
                 <c:formatCode>m"月"d"日"</c:formatCode>
-                <c:ptCount val="17"/>
+                <c:ptCount val="18"/>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -1650,13 +1640,13 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>63283</xdr:colOff>
-      <xdr:row>21</xdr:row>
+      <xdr:row>22</xdr:row>
       <xdr:rowOff>47960</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>15</xdr:col>
+      <xdr:col>14</xdr:col>
       <xdr:colOff>480391</xdr:colOff>
-      <xdr:row>44</xdr:row>
+      <xdr:row>45</xdr:row>
       <xdr:rowOff>8283</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -1689,11 +1679,11 @@
 <c:userShapes xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart">
   <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
     <cdr:from>
-      <cdr:x>0.47521</cdr:x>
+      <cdr:x>0.47563</cdr:x>
       <cdr:y>0.02768</cdr:y>
     </cdr:from>
     <cdr:to>
-      <cdr:x>0.47681</cdr:x>
+      <cdr:x>0.47723</cdr:x>
       <cdr:y>1</cdr:y>
     </cdr:to>
     <cdr:cxnSp macro="">
@@ -1709,8 +1699,8 @@
       </cdr:nvCxnSpPr>
       <cdr:spPr>
         <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" flipH="1">
-          <a:off x="5204801" y="130719"/>
-          <a:ext cx="17553" cy="4592104"/>
+          <a:off x="4587568" y="129118"/>
+          <a:ext cx="15432" cy="4535552"/>
         </a:xfrm>
         <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="line">
           <a:avLst/>
@@ -2033,48 +2023,45 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A7F4BDB1-4776-4630-8D31-BA0C296E5771}">
-  <dimension ref="C2:J44"/>
+  <dimension ref="C2:I45"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A25" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="M12" sqref="M12"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="3" max="3" width="18.375" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="9.875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="11.75" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9.125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="11.125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.88671875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="17.6640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="3:10" ht="17.25" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="3" spans="3:10" ht="19.5" x14ac:dyDescent="0.25">
+    <row r="2" spans="3:9" ht="16.8" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="3" spans="3:9" ht="19.8" x14ac:dyDescent="0.3">
       <c r="C3" s="3" t="s">
         <v>0</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="G3" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="H3" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="H3" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="I3" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="J3" s="7"/>
+      <c r="I3" s="6"/>
     </row>
-    <row r="4" spans="3:10" ht="19.5" x14ac:dyDescent="0.25">
+    <row r="4" spans="3:9" ht="19.8" x14ac:dyDescent="0.3">
       <c r="C4" s="4" t="s">
         <v>3</v>
       </c>
@@ -2082,25 +2069,22 @@
         <v>44531</v>
       </c>
       <c r="E4" s="4">
-        <f t="shared" ref="E4:E19" si="0">F4-D4+1</f>
+        <f t="shared" ref="E4:E20" si="0">F4-D4+1</f>
         <v>19</v>
       </c>
       <c r="F4" s="5">
         <v>44549</v>
       </c>
-      <c r="G4" s="6">
-        <v>1</v>
-      </c>
-      <c r="H4" s="4">
-        <f t="shared" ref="H4:H17" si="1">I4-D4+1</f>
+      <c r="G4" s="4">
+        <f>H4-D4+1</f>
         <v>18</v>
       </c>
-      <c r="I4" s="5">
+      <c r="H4" s="5">
         <v>44548</v>
       </c>
-      <c r="J4" s="1"/>
+      <c r="I4" s="1"/>
     </row>
-    <row r="5" spans="3:10" ht="19.5" x14ac:dyDescent="0.25">
+    <row r="5" spans="3:9" ht="19.8" x14ac:dyDescent="0.3">
       <c r="C5" s="4" t="s">
         <v>4</v>
       </c>
@@ -2114,19 +2098,16 @@
       <c r="F5" s="5">
         <v>44624</v>
       </c>
-      <c r="G5" s="6">
-        <v>1</v>
-      </c>
-      <c r="H5" s="4">
-        <f t="shared" si="1"/>
+      <c r="G5" s="4">
+        <f>H5-D5+1</f>
         <v>26</v>
       </c>
-      <c r="I5" s="5">
+      <c r="H5" s="5">
         <v>44624</v>
       </c>
-      <c r="J5" s="1"/>
+      <c r="I5" s="1"/>
     </row>
-    <row r="6" spans="3:10" ht="19.5" x14ac:dyDescent="0.25">
+    <row r="6" spans="3:9" ht="19.8" x14ac:dyDescent="0.3">
       <c r="C6" s="4" t="s">
         <v>1</v>
       </c>
@@ -2140,19 +2121,16 @@
       <c r="F6" s="5">
         <v>44620</v>
       </c>
-      <c r="G6" s="6">
-        <v>1</v>
-      </c>
-      <c r="H6" s="4">
-        <f t="shared" si="1"/>
+      <c r="G6" s="4">
+        <f>H6-D6+1</f>
         <v>62</v>
       </c>
-      <c r="I6" s="5">
+      <c r="H6" s="5">
         <v>44625</v>
       </c>
-      <c r="J6" s="1"/>
+      <c r="I6" s="1"/>
     </row>
-    <row r="7" spans="3:10" ht="19.5" x14ac:dyDescent="0.25">
+    <row r="7" spans="3:9" ht="19.8" x14ac:dyDescent="0.3">
       <c r="C7" s="4" t="s">
         <v>5</v>
       </c>
@@ -2166,19 +2144,16 @@
       <c r="F7" s="5">
         <v>44636</v>
       </c>
-      <c r="G7" s="6">
-        <v>1</v>
-      </c>
-      <c r="H7" s="4">
-        <f t="shared" si="1"/>
+      <c r="G7" s="4">
+        <f>H7-D7+1</f>
         <v>32</v>
       </c>
-      <c r="I7" s="5">
+      <c r="H7" s="5">
         <v>44633</v>
       </c>
-      <c r="J7" s="1"/>
+      <c r="I7" s="1"/>
     </row>
-    <row r="8" spans="3:10" ht="19.5" x14ac:dyDescent="0.25">
+    <row r="8" spans="3:9" ht="19.8" x14ac:dyDescent="0.3">
       <c r="C8" s="4" t="s">
         <v>2</v>
       </c>
@@ -2192,21 +2167,18 @@
       <c r="F8" s="5">
         <v>44640</v>
       </c>
-      <c r="G8" s="6">
-        <v>0.85</v>
-      </c>
-      <c r="H8" s="4">
-        <f t="shared" si="1"/>
+      <c r="G8" s="4">
+        <f>H8-D8+1</f>
         <v>31</v>
       </c>
-      <c r="I8" s="5">
+      <c r="H8" s="5">
         <v>44642</v>
       </c>
-      <c r="J8" s="1"/>
+      <c r="I8" s="1"/>
     </row>
-    <row r="9" spans="3:10" ht="19.5" x14ac:dyDescent="0.25">
+    <row r="9" spans="3:9" ht="19.8" x14ac:dyDescent="0.3">
       <c r="C9" s="4" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D9" s="5">
         <v>44576</v>
@@ -2218,21 +2190,18 @@
       <c r="F9" s="5">
         <v>44794</v>
       </c>
-      <c r="G9" s="6">
-        <v>0.5</v>
-      </c>
-      <c r="H9" s="4">
-        <f t="shared" si="1"/>
+      <c r="G9" s="4">
+        <f>H9-D9+1</f>
         <v>124</v>
       </c>
-      <c r="I9" s="5">
+      <c r="H9" s="5">
         <v>44699</v>
       </c>
-      <c r="J9" s="1"/>
+      <c r="I9" s="1"/>
     </row>
-    <row r="10" spans="3:10" ht="19.5" x14ac:dyDescent="0.25">
+    <row r="10" spans="3:9" ht="19.8" x14ac:dyDescent="0.3">
       <c r="C10" s="4" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D10" s="5">
         <v>44615</v>
@@ -2244,21 +2213,18 @@
       <c r="F10" s="5">
         <v>44887</v>
       </c>
-      <c r="G10" s="6">
-        <v>0.5</v>
-      </c>
-      <c r="H10" s="4">
-        <f t="shared" si="1"/>
+      <c r="G10" s="4">
+        <f>H10-D10+1</f>
         <v>85</v>
       </c>
-      <c r="I10" s="5">
+      <c r="H10" s="5">
         <v>44699</v>
       </c>
-      <c r="J10" s="1"/>
+      <c r="I10" s="1"/>
     </row>
-    <row r="11" spans="3:10" ht="19.5" x14ac:dyDescent="0.25">
+    <row r="11" spans="3:9" ht="19.8" x14ac:dyDescent="0.3">
       <c r="C11" s="4" t="s">
-        <v>7</v>
+        <v>21</v>
       </c>
       <c r="D11" s="5">
         <v>44620</v>
@@ -2270,47 +2236,41 @@
       <c r="F11" s="5">
         <v>44785</v>
       </c>
-      <c r="G11" s="6">
-        <v>0.6</v>
-      </c>
-      <c r="H11" s="4">
-        <f t="shared" si="1"/>
+      <c r="G11" s="4">
+        <f>H11-D11+1</f>
         <v>80</v>
       </c>
-      <c r="I11" s="5">
+      <c r="H11" s="5">
         <v>44699</v>
       </c>
-      <c r="J11" s="1"/>
+      <c r="I11" s="1"/>
     </row>
-    <row r="12" spans="3:10" ht="19.5" x14ac:dyDescent="0.25">
+    <row r="12" spans="3:9" ht="19.8" x14ac:dyDescent="0.3">
       <c r="C12" s="4" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="D12" s="5">
-        <v>44625</v>
+        <v>44662</v>
       </c>
       <c r="E12" s="4">
         <f t="shared" si="0"/>
-        <v>281</v>
+        <v>244</v>
       </c>
       <c r="F12" s="5">
         <v>44905</v>
       </c>
-      <c r="G12" s="6">
-        <v>0.3</v>
-      </c>
-      <c r="H12" s="4">
-        <f t="shared" si="1"/>
-        <v>75</v>
-      </c>
-      <c r="I12" s="5">
+      <c r="G12" s="4">
+        <f>H12-D12+1</f>
+        <v>38</v>
+      </c>
+      <c r="H12" s="5">
         <v>44699</v>
       </c>
-      <c r="J12" s="1"/>
+      <c r="I12" s="1"/>
     </row>
-    <row r="13" spans="3:10" ht="19.5" x14ac:dyDescent="0.25">
+    <row r="13" spans="3:9" ht="19.8" x14ac:dyDescent="0.3">
       <c r="C13" s="4" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D13" s="5">
         <v>44658</v>
@@ -2322,21 +2282,18 @@
       <c r="F13" s="5">
         <v>44772</v>
       </c>
-      <c r="G13" s="6">
-        <v>0.65</v>
-      </c>
-      <c r="H13" s="4">
-        <f t="shared" si="1"/>
+      <c r="G13" s="4">
+        <f>H13-D13+1</f>
         <v>42</v>
       </c>
-      <c r="I13" s="5">
+      <c r="H13" s="5">
         <v>44699</v>
       </c>
-      <c r="J13" s="1"/>
+      <c r="I13" s="1"/>
     </row>
-    <row r="14" spans="3:10" ht="19.5" x14ac:dyDescent="0.25">
+    <row r="14" spans="3:9" ht="19.8" x14ac:dyDescent="0.3">
       <c r="C14" s="4" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D14" s="5">
         <v>44658</v>
@@ -2348,21 +2305,18 @@
       <c r="F14" s="5">
         <v>44772</v>
       </c>
-      <c r="G14" s="6">
-        <v>0.65</v>
-      </c>
-      <c r="H14" s="4">
-        <f t="shared" si="1"/>
+      <c r="G14" s="4">
+        <f>H14-D14+1</f>
         <v>42</v>
       </c>
-      <c r="I14" s="5">
+      <c r="H14" s="5">
         <v>44699</v>
       </c>
-      <c r="J14" s="1"/>
+      <c r="I14" s="1"/>
     </row>
-    <row r="15" spans="3:10" ht="19.5" x14ac:dyDescent="0.25">
+    <row r="15" spans="3:9" ht="19.8" x14ac:dyDescent="0.3">
       <c r="C15" s="4" t="s">
-        <v>6</v>
+        <v>19</v>
       </c>
       <c r="D15" s="5">
         <v>44678</v>
@@ -2374,21 +2328,18 @@
       <c r="F15" s="5">
         <v>44727</v>
       </c>
-      <c r="G15" s="6">
-        <v>0.7</v>
-      </c>
-      <c r="H15" s="4">
-        <f t="shared" si="1"/>
+      <c r="G15" s="4">
+        <f>H15-D15+1</f>
         <v>22</v>
       </c>
-      <c r="I15" s="5">
+      <c r="H15" s="5">
         <v>44699</v>
       </c>
-      <c r="J15" s="1"/>
+      <c r="I15" s="1"/>
     </row>
-    <row r="16" spans="3:10" ht="19.5" x14ac:dyDescent="0.25">
+    <row r="16" spans="3:9" ht="19.8" x14ac:dyDescent="0.3">
       <c r="C16" s="4" t="s">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="D16" s="5">
         <v>44678</v>
@@ -2400,21 +2351,18 @@
       <c r="F16" s="5">
         <v>44855</v>
       </c>
-      <c r="G16" s="6">
-        <v>0.2</v>
-      </c>
-      <c r="H16" s="4">
-        <f t="shared" si="1"/>
+      <c r="G16" s="4">
+        <f>H16-D16+1</f>
         <v>22</v>
       </c>
-      <c r="I16" s="5">
+      <c r="H16" s="5">
         <v>44699</v>
       </c>
-      <c r="J16" s="1"/>
+      <c r="I16" s="1"/>
     </row>
-    <row r="17" spans="3:10" ht="19.5" x14ac:dyDescent="0.25">
+    <row r="17" spans="3:9" ht="19.8" x14ac:dyDescent="0.3">
       <c r="C17" s="4" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="D17" s="5">
         <v>44683</v>
@@ -2426,21 +2374,18 @@
       <c r="F17" s="5">
         <v>44788</v>
       </c>
-      <c r="G17" s="6">
-        <v>0.05</v>
-      </c>
-      <c r="H17" s="4">
-        <f t="shared" si="1"/>
+      <c r="G17" s="4">
+        <f>H17-D17+1</f>
         <v>17</v>
       </c>
-      <c r="I17" s="5">
+      <c r="H17" s="5">
         <v>44699</v>
       </c>
-      <c r="J17" s="1"/>
+      <c r="I17" s="1"/>
     </row>
-    <row r="18" spans="3:10" ht="19.5" x14ac:dyDescent="0.25">
+    <row r="18" spans="3:9" ht="19.8" x14ac:dyDescent="0.3">
       <c r="C18" s="4" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="D18" s="5">
         <v>44702</v>
@@ -2452,68 +2397,68 @@
       <c r="F18" s="5">
         <v>44877</v>
       </c>
-      <c r="G18" s="6">
+      <c r="G18" s="4">
         <v>0</v>
       </c>
-      <c r="H18" s="4">
-        <f>0</f>
-        <v>0</v>
-      </c>
-      <c r="I18" s="5">
+      <c r="H18" s="5">
         <v>44699</v>
       </c>
-      <c r="J18" s="1"/>
+      <c r="I18" s="1"/>
     </row>
-    <row r="19" spans="3:10" ht="19.5" x14ac:dyDescent="0.25">
+    <row r="19" spans="3:9" ht="19.8" x14ac:dyDescent="0.3">
       <c r="C19" s="4" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="D19" s="5">
-        <v>44866</v>
+        <v>44690</v>
       </c>
       <c r="E19" s="4">
         <f t="shared" si="0"/>
-        <v>30</v>
+        <v>18</v>
       </c>
       <c r="F19" s="5">
-        <v>44895</v>
-      </c>
-      <c r="G19" s="6">
-        <v>0</v>
-      </c>
-      <c r="H19" s="4">
-        <v>0</v>
-      </c>
-      <c r="I19" s="5">
+        <v>44707</v>
+      </c>
+      <c r="G19" s="4">
+        <f t="shared" ref="G18:G19" si="1">H19-D19+1</f>
+        <v>10</v>
+      </c>
+      <c r="H19" s="5">
         <v>44699</v>
       </c>
-      <c r="J19" s="1"/>
+      <c r="I19" s="1"/>
     </row>
-    <row r="20" spans="3:10" ht="19.5" x14ac:dyDescent="0.25">
-      <c r="D20" s="8"/>
-      <c r="E20" s="8"/>
-      <c r="F20" s="8"/>
-      <c r="G20" s="8"/>
-      <c r="H20" s="8"/>
-      <c r="I20" s="8"/>
+    <row r="20" spans="3:9" ht="19.8" x14ac:dyDescent="0.3">
+      <c r="C20" s="4"/>
+      <c r="D20" s="5"/>
+      <c r="E20" s="4"/>
+      <c r="F20" s="5"/>
+      <c r="G20" s="4"/>
+      <c r="H20" s="5"/>
+      <c r="I20" s="1"/>
     </row>
-    <row r="35" spans="6:10" x14ac:dyDescent="0.25">
-      <c r="J35" t="s">
-        <v>24</v>
-      </c>
+    <row r="21" spans="3:9" ht="19.8" x14ac:dyDescent="0.3">
+      <c r="C21" s="8"/>
+      <c r="D21" s="7"/>
+      <c r="E21" s="7"/>
+      <c r="F21" s="7"/>
+      <c r="G21" s="7"/>
+      <c r="H21" s="7"/>
     </row>
-    <row r="44" spans="6:10" x14ac:dyDescent="0.25">
-      <c r="F44" s="2"/>
-      <c r="G44" t="s">
-        <v>23</v>
-      </c>
+    <row r="36" spans="6:9" x14ac:dyDescent="0.3">
+      <c r="I36" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="45" spans="6:9" x14ac:dyDescent="0.3">
+      <c r="F45" s="2"/>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="C4:I19">
-    <sortCondition ref="I4:I19"/>
-    <sortCondition ref="D4:D19"/>
+  <sortState ref="C4:H20">
+    <sortCondition ref="H4:H20"/>
+    <sortCondition ref="D4:D20"/>
   </sortState>
-  <phoneticPr fontId="2" type="noConversion"/>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
